--- a/Collections/EURO/Malta/#EURO#Malta#Regular#[2008-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Regular#[2008-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Malta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="63">
   <si>
     <t>-</t>
   </si>
@@ -647,9 +647,6 @@
     <t>Subtype_2</t>
   </si>
   <si>
-    <t>Copper plated Steel</t>
-  </si>
-  <si>
     <t>1cent</t>
   </si>
   <si>
@@ -662,9 +659,6 @@
     <t>10cents</t>
   </si>
   <si>
-    <t>Brass</t>
-  </si>
-  <si>
     <t>20cents</t>
   </si>
   <si>
@@ -672,9 +666,6 @@
   </si>
   <si>
     <t>1€</t>
-  </si>
-  <si>
-    <t>Bi-Metallic</t>
   </si>
   <si>
     <t>№</t>
@@ -806,7 +797,22 @@
     <t>Obv: With designer abbreviation "NGB"</t>
   </si>
   <si>
-    <t>Obv: With mint letter "F"</t>
+    <t>Obv: Without mint symbol</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>Obv: Mnajdra temple altar</t>
+  </si>
+  <si>
+    <t>Obv: Coat of arms of Malta</t>
+  </si>
+  <si>
+    <t>Obv: Maltese cross</t>
+  </si>
+  <si>
+    <t>Obv: With mint letter "F" in star</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1088,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1137,6 +1143,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2116,7 +2125,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2131,29 +2140,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2161,16 +2170,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2179,19 +2188,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -2269,12 +2278,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -2295,14 +2306,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D7" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -2323,14 +2336,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D8" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -2351,14 +2366,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D9" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -2379,14 +2396,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D10" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -2407,19 +2426,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -2437,19 +2456,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -2467,19 +2486,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -2497,19 +2516,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -2697,7 +2716,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:D14"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2712,29 +2731,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2742,16 +2761,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2760,19 +2779,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -2850,12 +2869,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -2876,14 +2897,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D7" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -2904,14 +2927,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D8" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -2932,14 +2957,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D9" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -2960,14 +2987,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D10" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -2988,19 +3017,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -3018,19 +3047,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -3048,19 +3077,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -3078,19 +3107,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -3295,7 +3324,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:D14"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3310,29 +3339,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -3340,16 +3369,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3358,19 +3387,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -3448,12 +3477,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -3474,14 +3505,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D7" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -3502,14 +3535,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D8" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -3530,14 +3565,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D9" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -3558,14 +3595,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="D10" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -3586,19 +3625,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -3616,19 +3655,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -3646,19 +3685,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -3676,19 +3715,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -3893,7 +3932,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:D14"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3908,29 +3947,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="36"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="37"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -3938,16 +3977,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3956,17 +3995,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -4044,12 +4085,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -4070,12 +4115,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -4096,12 +4145,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -4122,12 +4175,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E9" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -4148,12 +4205,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -4174,17 +4235,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -4202,17 +4265,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -4230,17 +4295,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -4258,17 +4325,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -4456,7 +4525,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:D14"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4471,29 +4540,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -4501,16 +4570,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4519,17 +4588,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -4607,12 +4678,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -4633,12 +4708,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -4659,12 +4738,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -4685,12 +4768,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E9" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -4711,12 +4798,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -4737,17 +4828,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -4765,17 +4858,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -4793,17 +4888,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -4821,17 +4918,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -5019,7 +5118,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:D14"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5034,29 +5133,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5064,16 +5163,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -5082,17 +5181,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -5170,12 +5271,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -5196,12 +5301,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -5222,12 +5331,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -5248,12 +5361,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E9" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -5274,12 +5391,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -5300,17 +5421,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -5328,17 +5451,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -5356,17 +5481,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -5384,17 +5511,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -5578,11 +5707,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5597,29 +5726,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="38"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="39"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5627,16 +5756,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -5645,17 +5774,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -5733,12 +5864,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -5759,12 +5894,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -5785,12 +5924,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -5811,12 +5954,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E9" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -5837,12 +5984,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -5863,17 +6014,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -5891,17 +6044,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -5919,17 +6074,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -5947,17 +6104,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -6141,11 +6300,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6160,29 +6319,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="38"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="39"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -6190,16 +6349,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -6208,17 +6367,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -6266,12 +6427,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E5" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -6292,12 +6457,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -6318,12 +6487,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -6344,12 +6517,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -6370,12 +6547,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E9" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -6396,12 +6577,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -6422,17 +6607,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -6450,17 +6637,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -6478,17 +6667,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -6506,17 +6697,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -6733,13 +6926,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6747,10 +6940,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6758,10 +6951,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6769,10 +6962,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6780,10 +6973,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6791,10 +6984,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6802,10 +6995,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Malta/#EURO#Malta#Regular#[2008-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Regular#[2008-present]#circulation_quality%varieties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Malta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836FE779-37A3-46B5-89DA-DEBE7BC9F1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -22,22 +23,31 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -106,12 +116,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -180,12 +190,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -254,12 +264,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -291,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -307,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -328,12 +338,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -349,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -381,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -402,12 +412,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -423,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -439,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -455,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -476,12 +486,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -497,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -513,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -529,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -550,12 +560,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -571,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -587,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -603,7 +613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -624,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="86">
   <si>
     <t>-</t>
   </si>
@@ -814,12 +824,81 @@
   <si>
     <t>Obv: With mint letter "F" in star</t>
   </si>
+  <si>
+    <t>10.000</t>
+  </si>
+  <si>
+    <t>11.000</t>
+  </si>
+  <si>
+    <t>2.500.000</t>
+  </si>
+  <si>
+    <t>155.000</t>
+  </si>
+  <si>
+    <t>2.025.000</t>
+  </si>
+  <si>
+    <t>1.510.000</t>
+  </si>
+  <si>
+    <t>2.525.000</t>
+  </si>
+  <si>
+    <t>1.010.000</t>
+  </si>
+  <si>
+    <t>3.515.000</t>
+  </si>
+  <si>
+    <t>2.511.000</t>
+  </si>
+  <si>
+    <t>7.015.000</t>
+  </si>
+  <si>
+    <t>2.510.000</t>
+  </si>
+  <si>
+    <t>3.111.000</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2.001.000</t>
+  </si>
+  <si>
+    <t>10.515.000</t>
+  </si>
+  <si>
+    <t>4.525.000</t>
+  </si>
+  <si>
+    <t>4.001.000</t>
+  </si>
+  <si>
+    <t>10.015.000</t>
+  </si>
+  <si>
+    <t>6.500.000</t>
+  </si>
+  <si>
+    <t>6.000.000</t>
+  </si>
+  <si>
+    <t>21.025.000</t>
+  </si>
+  <si>
+    <t>5.015.000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -875,6 +954,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1205,9 +1290,1001 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="127">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1216,606 +2293,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1841,16 +2318,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="125" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2118,14 +2595,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2458,8 +2935,8 @@
       <c r="B12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>62</v>
+      <c r="C12" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>56</v>
@@ -2467,13 +2944,13 @@
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>37</v>
+      <c r="F12" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="18">
         <v>0</v>
       </c>
       <c r="I12" s="3" t="str">
@@ -2497,13 +2974,13 @@
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>40</v>
+      <c r="F13" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="18">
         <v>0</v>
       </c>
       <c r="I13" s="3" t="str">
@@ -2527,17 +3004,137 @@
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>26</v>
+      <c r="F14" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="18">
         <v>0</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" ref="I15:I18" si="1">IF(OR(AND(G15&gt;1,G15&lt;&gt;"-"),AND(H15&gt;1,H15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2549,13 +3146,14 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G4:G7 G9:G10">
-    <cfRule type="containsText" dxfId="77" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G7 G9:G10">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2567,11 +3165,101 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H10">
-    <cfRule type="containsText" dxfId="76" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H10">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsText" dxfId="121" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="120" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G16">
+    <cfRule type="containsText" dxfId="119" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G16">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="118" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="117" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="116" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2583,12 +3271,58 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="115" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="114" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="113" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2600,12 +3334,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="74" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="H14">
+    <cfRule type="containsText" dxfId="112" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2617,12 +3351,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G14">
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G14">
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="111" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2634,12 +3368,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
-    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
+  <conditionalFormatting sqref="G17:G18">
+    <cfRule type="containsText" dxfId="110" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2651,46 +3385,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2700,6 +3395,11 @@
         <color rgb="FFD1E0B2"/>
         <color rgb="FF00B050"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H18">
+    <cfRule type="containsText" dxfId="109" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2709,14 +3409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3059,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -3088,13 +3788,13 @@
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>40</v>
+      <c r="F13" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="18">
         <v>0</v>
       </c>
       <c r="I13" s="3" t="str">
@@ -3129,6 +3829,126 @@
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" ref="I15:I18" si="1">IF(OR(AND(G15&gt;1,G15&lt;&gt;"-"),AND(H15&gt;1,H15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3140,7 +3960,195 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G12:G14">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="G12:G16">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12 H14">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H10">
+    <cfRule type="containsText" dxfId="108" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H10">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="107" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="106" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsText" dxfId="105" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="104" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G16">
+    <cfRule type="containsText" dxfId="103" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12 H14">
+    <cfRule type="containsText" dxfId="102" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G7 G9">
+    <cfRule type="containsText" dxfId="101" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G7 G9">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="100" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="containsText" dxfId="99" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G18">
+    <cfRule type="containsText" dxfId="98" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G18">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3152,7 +4160,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
+  <conditionalFormatting sqref="H17:H18">
+    <cfRule type="containsText" dxfId="97" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="96" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3164,102 +4182,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="containsText" dxfId="68" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="67" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="66" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="65" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="64" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G14">
-    <cfRule type="containsText" dxfId="63" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
-    <cfRule type="containsText" dxfId="62" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="95" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3271,7 +4199,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="94" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3281,33 +4214,6 @@
         <color rgb="FFD1E0B2"/>
         <color rgb="FF00B050"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G7 G9">
-    <cfRule type="containsText" dxfId="61" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G7 G9">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="60" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3317,14 +4223,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A17:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3666,13 +4572,13 @@
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>37</v>
+      <c r="F12" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="18">
         <v>0</v>
       </c>
       <c r="I12" s="3" t="str">
@@ -3697,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -3726,17 +4632,137 @@
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>26</v>
+      <c r="F14" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="18">
         <v>0</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" ref="I15:I18" si="1">IF(OR(AND(G15&gt;1,G15&lt;&gt;"-"),AND(H15&gt;1,H15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3749,11 +4775,181 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="58" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="92" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsText" dxfId="91" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="90" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G14">
+    <cfRule type="containsText" dxfId="89" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G14">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="88" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="87" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="containsText" dxfId="86" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G7 G9">
+    <cfRule type="containsText" dxfId="85" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G7 G9">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H10">
+    <cfRule type="containsText" dxfId="84" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H10">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="83" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3765,12 +4961,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="57" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H14">
+    <cfRule type="containsText" dxfId="82" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3782,12 +4978,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="56" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
+  <conditionalFormatting sqref="G15">
+    <cfRule type="containsText" dxfId="81" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3799,12 +4995,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="55" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="80" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3816,12 +5012,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G14">
-    <cfRule type="containsText" dxfId="54" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G14">
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="79" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3833,12 +5029,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
-    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3850,12 +5046,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="G17:G18">
+    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3867,12 +5063,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3884,38 +5075,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G7 G9">
-    <cfRule type="containsText" dxfId="50" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G7 G9">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="containsText" dxfId="49" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+  <conditionalFormatting sqref="H17:H18">
+    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3925,14 +5087,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="A17:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4276,13 +5438,13 @@
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>37</v>
+      <c r="F12" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="18">
         <v>0</v>
       </c>
       <c r="I12" s="3" t="str">
@@ -4307,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -4336,17 +5498,137 @@
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>26</v>
+      <c r="F14" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="18">
         <v>0</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" ref="I15:I18" si="1">IF(OR(AND(G15&gt;1,G15&lt;&gt;"-"),AND(H15&gt;1,H15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4358,7 +5640,267 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H12:H14">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G14">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H10">
+    <cfRule type="containsText" dxfId="75" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H10">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="74" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="73" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsText" dxfId="72" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G14">
+    <cfRule type="containsText" dxfId="70" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="69" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="68" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G7 G9:G10">
+    <cfRule type="containsText" dxfId="67" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G7 G9:G10">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="66" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="containsText" dxfId="64" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="62" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G18">
+    <cfRule type="containsText" dxfId="60" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4370,119 +5912,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G14">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="containsText" dxfId="48" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="46" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="44" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G14">
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
-    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4494,21 +5924,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G7 G9:G10">
-    <cfRule type="containsText" dxfId="40" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G7 G9:G10">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+  <conditionalFormatting sqref="H17:H18">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4518,14 +5936,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4870,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -4900,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -4929,17 +6347,137 @@
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>26</v>
+      <c r="F14" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="18">
         <v>0</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" ref="I15:I18" si="1">IF(OR(AND(G15&gt;1,G15&lt;&gt;"-"),AND(H15&gt;1,H15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4951,7 +6489,250 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H12:H14">
+  <conditionalFormatting sqref="H12:H13">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G14">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H10">
+    <cfRule type="containsText" dxfId="58" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H10">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="57" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="56" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsText" dxfId="55" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="54" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G14">
+    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H13">
+    <cfRule type="containsText" dxfId="52" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G7 G9:G10">
+    <cfRule type="containsText" dxfId="50" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G7 G9:G10">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="containsText" dxfId="48" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G18">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4963,119 +6744,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G14">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G14">
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5087,21 +6756,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G7 G9:G10">
-    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G7 G9:G10">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+  <conditionalFormatting sqref="H17:H18">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5111,14 +6768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="A17:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5462,13 +7119,13 @@
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>37</v>
+      <c r="F12" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="18">
         <v>0</v>
       </c>
       <c r="I12" s="3" t="str">
@@ -5493,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -5522,17 +7179,137 @@
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>26</v>
+      <c r="F14" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="18">
         <v>0</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" ref="I15:I18" si="1">IF(OR(AND(G15&gt;1,G15&lt;&gt;"-"),AND(H15&gt;1,H15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -5544,7 +7321,166 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H12:H14">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G15">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H10">
+    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H10">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="40" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsText" dxfId="39" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G15">
+    <cfRule type="containsText" dxfId="37" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G7 G9:G10">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G7 G9:G10">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G18">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5556,7 +7492,58 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H18">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5568,7 +7555,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G14">
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5580,121 +7572,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G14">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G7 G9:G10">
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G7 G9:G10">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5704,14 +7584,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6026,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -6055,13 +7935,13 @@
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>37</v>
+      <c r="F12" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="18">
         <v>0</v>
       </c>
       <c r="I12" s="3" t="str">
@@ -6086,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -6115,17 +7995,137 @@
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>26</v>
+      <c r="F14" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="18">
         <v>0</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" ref="I15:I18" si="1">IF(OR(AND(G15&gt;1,G15&lt;&gt;"-"),AND(H15&gt;1,H15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -6137,7 +8137,229 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G12:G14">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="G12:G15">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H10">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H10">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G15">
+    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G7 G9:G10">
+    <cfRule type="containsText" dxfId="19" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G7 G9:G10">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6149,43 +8371,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6197,71 +8388,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G14">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6273,21 +8400,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G7 G9:G10">
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G7 G9:G10">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+  <conditionalFormatting sqref="G17:G18">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H18">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6297,14 +8417,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A17:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6722,6 +8842,126 @@
         <v/>
       </c>
     </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" ref="I15:I16" si="1">IF(OR(AND(G15&gt;1,G15&lt;&gt;"-"),AND(H15&gt;1,H15&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" ref="I17:I18" si="2">IF(OR(AND(G17&gt;1,G17&lt;&gt;"-"),AND(H17&gt;1,H17&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E1:F1"/>
@@ -6730,7 +8970,68 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G12:G14">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="G12:G16">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H16">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6742,43 +9043,59 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:G16">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H16">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6790,7 +9107,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="G4 G9:G10 G6:G7">
+    <cfRule type="containsText" dxfId="3" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G10 G4 G6:G7">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H10">
+    <cfRule type="containsText" dxfId="2" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H10">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:G18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6802,59 +9153,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G14">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H14">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6866,38 +9165,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G9:G10 G6:G7">
-    <cfRule type="containsText" dxfId="4" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G10 G4 G6:G7">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H10">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+  <conditionalFormatting sqref="G17:G18">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H18">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6907,7 +9182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7003,12 +9278,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>

--- a/Collections/EURO/Malta/#EURO#Malta#Regular#[2008-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Regular#[2008-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836FE779-37A3-46B5-89DA-DEBE7BC9F1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD893B9-C677-40DB-95CA-AB93573F942A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -642,9 +642,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -893,6 +890,9 @@
   <si>
     <t>5.015.000</t>
   </si>
+  <si>
+    <t>Subject</t>
+  </si>
 </sst>
 </file>
 
@@ -1000,7 +1000,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1124,30 +1124,6 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
@@ -1173,7 +1149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1256,12 +1232,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1294,998 +1264,6 @@
   </cellStyles>
   <dxfs count="127">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2293,6 +1271,998 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2325,9 +2295,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="126"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="125" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="124"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2598,11 +2568,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2621,18 +2591,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="29"/>
       <c r="I1" s="2"/>
@@ -2641,22 +2611,22 @@
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2665,19 +2635,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -2755,14 +2725,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -2783,16 +2753,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -2813,16 +2783,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -2843,16 +2813,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -2873,16 +2843,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -2903,19 +2873,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -2933,19 +2903,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -2963,19 +2933,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -2993,19 +2963,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -3023,19 +2993,19 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -3053,19 +3023,19 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -3083,16 +3053,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -3113,16 +3083,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E18" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -3148,7 +3118,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G4:G7 G9:G10">
-    <cfRule type="containsText" dxfId="123" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3165,7 +3135,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H10">
-    <cfRule type="containsText" dxfId="122" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3182,7 +3152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="121" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3199,7 +3169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="120" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3216,7 +3186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G16">
-    <cfRule type="containsText" dxfId="119" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3233,7 +3203,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="118" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3250,12 +3220,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="117" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="116" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3272,7 +3242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="115" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3301,7 +3271,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="114" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3318,7 +3288,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="113" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3335,7 +3305,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="112" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3352,7 +3322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="111" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3369,7 +3339,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G18">
-    <cfRule type="containsText" dxfId="110" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3398,7 +3368,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="containsText" dxfId="109" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3416,7 +3386,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:I18"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3435,18 +3405,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="29"/>
       <c r="I1" s="2"/>
@@ -3455,22 +3425,22 @@
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3479,19 +3449,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -3569,14 +3539,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -3597,16 +3567,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -3627,16 +3597,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -3657,16 +3627,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -3687,16 +3657,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -3717,19 +3687,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -3747,19 +3717,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -3777,19 +3747,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -3807,19 +3777,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -3837,19 +3807,19 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -3867,19 +3837,19 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -3897,16 +3867,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -3927,16 +3897,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E18" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -3973,7 +3943,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12 H14">
+  <conditionalFormatting sqref="H14 H12">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3986,7 +3956,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H10">
-    <cfRule type="containsText" dxfId="108" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4003,7 +3973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="107" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4020,7 +3990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="106" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4037,7 +4007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="105" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4054,7 +4024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="104" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4071,12 +4041,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G16">
-    <cfRule type="containsText" dxfId="103" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12 H14">
-    <cfRule type="containsText" dxfId="102" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4105,7 +4075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G7 G9">
-    <cfRule type="containsText" dxfId="101" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4122,17 +4092,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="100" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="99" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G18">
-    <cfRule type="containsText" dxfId="98" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4161,12 +4131,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="containsText" dxfId="97" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="96" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4183,7 +4153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="95" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4200,7 +4170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="94" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4230,7 +4200,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A17:I18"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4249,18 +4219,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="29"/>
       <c r="I1" s="2"/>
@@ -4269,22 +4239,22 @@
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4293,19 +4263,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -4383,14 +4353,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -4411,16 +4381,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -4441,16 +4411,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -4471,16 +4441,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -4501,16 +4471,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -4531,19 +4501,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -4561,19 +4531,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -4591,19 +4561,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -4621,19 +4591,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -4651,19 +4621,19 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -4681,19 +4651,19 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -4711,16 +4681,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -4741,16 +4711,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E18" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -4775,7 +4745,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="93" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4792,7 +4762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="92" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4809,7 +4779,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="91" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4826,7 +4796,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="90" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4843,7 +4813,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G14">
-    <cfRule type="containsText" dxfId="89" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4860,7 +4830,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="88" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4877,7 +4847,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="87" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4894,7 +4864,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="86" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4911,7 +4881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G7 G9">
-    <cfRule type="containsText" dxfId="85" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4928,7 +4898,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H10">
-    <cfRule type="containsText" dxfId="84" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4945,7 +4915,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="83" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4962,7 +4932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="82" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4979,7 +4949,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="81" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4996,7 +4966,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="80" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5013,7 +4983,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="79" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5030,7 +5000,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5047,7 +5017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G18">
-    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5076,7 +5046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5094,7 +5064,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="A17:I18"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5112,43 +5082,43 @@
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="37"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="35"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -5157,19 +5127,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -5247,16 +5217,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -5277,16 +5247,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E7" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -5307,16 +5277,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E8" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -5337,16 +5307,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -5367,16 +5337,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -5397,19 +5367,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -5427,19 +5397,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -5457,19 +5427,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -5487,19 +5457,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -5517,19 +5487,19 @@
         <v>2020</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -5547,19 +5517,19 @@
         <v>2021</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -5577,16 +5547,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -5607,16 +5577,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E18" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -5677,7 +5647,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H10">
-    <cfRule type="containsText" dxfId="75" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5694,7 +5664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="74" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5711,7 +5681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="73" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5728,7 +5698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="72" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5745,22 +5715,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="71" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G14">
-    <cfRule type="containsText" dxfId="70" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="69" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="68" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5777,7 +5747,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G7 G9:G10">
-    <cfRule type="containsText" dxfId="67" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5794,7 +5764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="66" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5811,7 +5781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="65" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5840,12 +5810,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="64" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5874,12 +5844,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="62" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5896,7 +5866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G18">
-    <cfRule type="containsText" dxfId="60" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5925,7 +5895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5943,7 +5913,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:I18"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5962,18 +5932,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="29"/>
       <c r="I1" s="2"/>
@@ -5982,22 +5952,22 @@
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -6006,19 +5976,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -6096,16 +6066,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -6126,16 +6096,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E7" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -6156,16 +6126,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E8" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -6186,16 +6156,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -6216,16 +6186,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -6246,19 +6216,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -6276,19 +6246,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -6306,19 +6276,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -6336,19 +6306,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -6366,19 +6336,19 @@
         <v>2020</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -6396,19 +6366,19 @@
         <v>2021</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -6426,16 +6396,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -6456,16 +6426,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E18" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -6526,7 +6496,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H10">
-    <cfRule type="containsText" dxfId="58" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6543,7 +6513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="57" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6560,7 +6530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="56" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6577,7 +6547,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="55" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6594,22 +6564,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="54" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G14">
-    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13">
-    <cfRule type="containsText" dxfId="52" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6626,7 +6596,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G7 G9:G10">
-    <cfRule type="containsText" dxfId="50" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6643,7 +6613,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6672,12 +6642,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="48" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6706,12 +6676,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6728,7 +6698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G18">
-    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6757,7 +6727,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6775,7 +6745,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="A17:I18"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6794,18 +6764,18 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="29"/>
       <c r="I1" s="2"/>
@@ -6814,22 +6784,22 @@
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -6838,19 +6808,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -6928,16 +6898,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -6958,16 +6928,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E7" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -6988,16 +6958,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -7018,16 +6988,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -7048,16 +7018,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -7078,19 +7048,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -7108,19 +7078,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -7138,19 +7108,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -7168,19 +7138,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -7198,19 +7168,19 @@
         <v>2020</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -7228,19 +7198,19 @@
         <v>2021</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -7258,16 +7228,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -7288,16 +7258,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E18" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -7359,7 +7329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H10">
-    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7376,7 +7346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7393,7 +7363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="40" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7410,7 +7380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="39" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7427,22 +7397,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="38" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G15">
-    <cfRule type="containsText" dxfId="37" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H15">
-    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7459,7 +7429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G7 G9:G10">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7476,7 +7446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G18">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7493,7 +7463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7522,7 +7492,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="31" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7539,7 +7509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7556,7 +7526,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7573,7 +7543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7591,7 +7561,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:I18"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7610,42 +7580,42 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="27"/>
-      <c r="G1" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="39"/>
+      <c r="G1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="37"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -7654,19 +7624,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -7744,16 +7714,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -7774,16 +7744,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E7" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -7804,16 +7774,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E8" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -7834,16 +7804,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -7864,16 +7834,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -7894,19 +7864,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -7924,19 +7894,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -7954,19 +7924,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -7984,19 +7954,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -8014,19 +7984,19 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -8044,19 +8014,19 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -8074,16 +8044,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -8104,16 +8074,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E18" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -8199,7 +8169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H10">
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8216,7 +8186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8233,32 +8203,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G15">
-    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8275,7 +8245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G7 G9:G10">
-    <cfRule type="containsText" dxfId="19" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8316,12 +8286,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8338,7 +8308,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8355,7 +8325,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8372,7 +8342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8401,12 +8371,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G18">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8420,11 +8390,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A17:I18"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8443,42 +8413,42 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="27"/>
-      <c r="G1" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="39"/>
+      <c r="G1" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="37"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -8487,19 +8457,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -8547,16 +8517,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -8577,16 +8547,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -8607,16 +8577,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E7" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -8637,16 +8607,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -8667,16 +8637,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -8697,16 +8667,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -8727,19 +8697,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -8757,19 +8727,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -8787,19 +8757,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -8817,19 +8787,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -8847,19 +8817,19 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -8877,19 +8847,19 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -8907,16 +8877,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -8937,16 +8907,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="E18" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -9044,7 +9014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9061,37 +9031,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G16">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9108,7 +9078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G9:G10 G6:G7">
-    <cfRule type="containsText" dxfId="3" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9125,7 +9095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H10">
-    <cfRule type="containsText" dxfId="2" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9166,12 +9136,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G18">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9201,13 +9171,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9215,10 +9185,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9226,10 +9196,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9237,10 +9207,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9248,10 +9218,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9259,10 +9229,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9270,10 +9240,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Malta/#EURO#Malta#Regular#[2008-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Malta/#EURO#Malta#Regular#[2008-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD893B9-C677-40DB-95CA-AB93573F942A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC6A150-0CA0-4208-820D-DE5043BF3FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="17740" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="2€" sheetId="12" r:id="rId8"/>
     <sheet name="Links" sheetId="6" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1cent'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2€'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'50cents'!$B$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5cents'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -634,7 +644,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="87">
   <si>
     <t>-</t>
   </si>
@@ -646,12 +656,6 @@
   </si>
   <si>
     <t>Mintage</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
   </si>
   <si>
     <t>1cent</t>
@@ -892,6 +896,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_1#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Subtype_2#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1162,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1207,6 +1220,9 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2572,61 +2588,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -2635,19 +2650,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -2725,14 +2740,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -2753,16 +2768,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -2783,16 +2798,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -2813,16 +2828,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -2843,16 +2858,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -2873,19 +2888,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -2903,19 +2918,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -2933,19 +2948,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -2963,19 +2978,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -2993,19 +3008,19 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -3023,19 +3038,19 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -3053,16 +3068,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -3083,16 +3098,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -3109,9 +3124,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -3386,61 +3401,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3449,19 +3463,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -3539,14 +3553,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -3567,16 +3581,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -3597,16 +3611,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -3627,16 +3641,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -3657,16 +3671,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -3687,19 +3701,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -3717,19 +3731,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -3747,19 +3761,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -3777,19 +3791,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -3807,19 +3821,19 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -3837,19 +3851,19 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -3867,16 +3881,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -3897,16 +3911,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -3923,9 +3937,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -3943,7 +3957,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14 H12">
+  <conditionalFormatting sqref="H12 H14">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4200,61 +4214,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -4263,19 +4276,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -4353,14 +4366,14 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -4381,16 +4394,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -4411,16 +4424,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -4441,16 +4454,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -4471,16 +4484,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -4501,19 +4514,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -4531,19 +4544,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -4561,19 +4574,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -4591,19 +4604,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -4621,19 +4634,19 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -4651,19 +4664,19 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -4681,16 +4694,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -4711,16 +4724,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -4737,9 +4750,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -5064,61 +5077,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="35"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="36"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -5127,19 +5139,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -5217,16 +5229,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -5247,16 +5259,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -5277,16 +5289,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -5307,16 +5319,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -5337,16 +5349,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -5367,19 +5379,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -5397,19 +5409,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -5427,19 +5439,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -5457,19 +5469,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -5487,19 +5499,19 @@
         <v>2020</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -5517,19 +5529,19 @@
         <v>2021</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -5547,16 +5559,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -5577,16 +5589,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -5603,9 +5615,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -5913,61 +5925,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="30"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -5976,19 +5987,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -6066,16 +6077,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -6096,16 +6107,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -6126,16 +6137,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -6156,16 +6167,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -6186,16 +6197,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -6216,19 +6227,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -6246,19 +6257,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -6276,19 +6287,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -6306,19 +6317,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -6336,19 +6347,19 @@
         <v>2020</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -6366,19 +6377,19 @@
         <v>2021</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -6396,16 +6407,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -6426,16 +6437,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -6452,9 +6463,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -6745,61 +6756,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="30"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -6808,19 +6818,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -6898,16 +6908,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -6928,16 +6938,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -6958,16 +6968,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -6988,16 +6998,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -7018,16 +7028,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -7048,19 +7058,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -7078,19 +7088,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -7108,19 +7118,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -7138,19 +7148,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -7168,19 +7178,19 @@
         <v>2020</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -7198,19 +7208,19 @@
         <v>2021</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -7228,16 +7238,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -7258,16 +7268,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -7284,9 +7294,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -7561,61 +7571,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="37"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="38"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -7624,19 +7633,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -7714,16 +7723,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -7744,16 +7753,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -7774,16 +7783,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -7804,16 +7813,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -7834,16 +7843,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -7864,19 +7873,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -7894,19 +7903,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -7924,19 +7933,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -7954,19 +7963,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -7984,19 +7993,19 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -8014,19 +8023,19 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -8044,16 +8053,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -8074,16 +8083,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -8100,9 +8109,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -8394,61 +8403,60 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.6328125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="37"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="38"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -8457,19 +8465,19 @@
         <v>2008</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -8517,16 +8525,16 @@
         <v>2010</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
@@ -8547,16 +8555,16 @@
         <v>2011</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -8577,16 +8585,16 @@
         <v>2012</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -8607,16 +8615,16 @@
         <v>2013</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -8637,16 +8645,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -8667,16 +8675,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -8697,19 +8705,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -8727,19 +8735,19 @@
         <v>2017</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -8757,19 +8765,19 @@
         <v>2018</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -8787,19 +8795,19 @@
         <v>2019</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -8817,19 +8825,19 @@
         <v>2020</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -8847,19 +8855,19 @@
         <v>2021</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -8877,16 +8885,16 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>0</v>
@@ -8907,16 +8915,16 @@
         <v>2023</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>0</v>
@@ -8933,11 +8941,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -9171,13 +9179,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9185,10 +9193,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9196,10 +9204,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9207,10 +9215,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9218,10 +9226,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9229,10 +9237,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9240,10 +9248,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
